--- a/CR - Cost Report/2_CBOM/EL_processes.xlsx
+++ b/CR - Cost Report/2_CBOM/EL_processes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\CR - Cost Report\2_CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD745918-CE9A-4F84-A3FA-6578E6C6AB96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73451649-A0B2-449E-BC8A-E3F95DFFE02D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Attach Wire</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Wire Dressing (install and route)</t>
   </si>
   <si>
-    <t>Wire Process</t>
-  </si>
-  <si>
     <t>Electrical harness</t>
   </si>
   <si>
@@ -90,7 +87,52 @@
     <t>PCB Heating</t>
   </si>
   <si>
-    <t>Connector soldering</t>
+    <t>1 per Tie wrap</t>
+  </si>
+  <si>
+    <t>Assemble the pins with the connector</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Time / tie wrap</t>
+  </si>
+  <si>
+    <t>Time / pin</t>
+  </si>
+  <si>
+    <t>Connect the connector</t>
+  </si>
+  <si>
+    <t>Time / connector</t>
+  </si>
+  <si>
+    <t>Time to initialise the boards. (Software dev is a fix cost)</t>
+  </si>
+  <si>
+    <t>time/m</t>
+  </si>
+  <si>
+    <t>Séparer gaine thermo / manchon ?</t>
+  </si>
+  <si>
+    <t>time/m/fil</t>
+  </si>
+  <si>
+    <t>time / wire</t>
+  </si>
+  <si>
+    <t>Time / component</t>
+  </si>
+  <si>
+    <t>Time + cost / card</t>
+  </si>
+  <si>
+    <t>Time / card</t>
+  </si>
+  <si>
+    <t>A partir des planches à clous (distannce + nb fils)</t>
   </si>
 </sst>
 </file>
@@ -429,167 +471,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C16:D18">
+  <conditionalFormatting sqref="C16:D17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
@@ -598,5 +676,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CR - Cost Report/2_CBOM/EL_processes.xlsx
+++ b/CR - Cost Report/2_CBOM/EL_processes.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\CR - Cost Report\2_CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73451649-A0B2-449E-BC8A-E3F95DFFE02D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3730F86D-CD3B-43CB-8D70-FA828A128ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -474,7 +483,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
